--- a/Distribución planteada.xlsx
+++ b/Distribución planteada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Documentos\UIS\Simulación digital\Simulacion_ascensor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\radou\OneDrive\Documentos\UIS\Simulación digital\Simulacion_ascensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{985CA8A8-E19E-43B5-9770-B770E892988A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{15D04FF3-A2F1-401C-8B65-02D8FD10ABB0}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{985CA8A8-E19E-43B5-9770-B770E892988A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{77FDCAB0-3E22-4DB4-AC67-73130D9E0421}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="14490" windowHeight="7875" xr2:uid="{CC328A1C-23EC-4145-9EA0-B1F4A873E69E}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{CC328A1C-23EC-4145-9EA0-B1F4A873E69E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -118,6 +118,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Distribución</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> a lo largo del día</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1398,7 +1428,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
